--- a/task/SuppleLookupTable.xlsx
+++ b/task/SuppleLookupTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DNPL\Documents\GitHub\explore_clock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C02449-C906-4877-86FC-3E8DEAC40168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B665879-5702-4D7A-AF94-E633AFA9F076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="6">
   <si>
     <t>Control</t>
   </si>
@@ -95,9 +95,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,9 +135,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,26 +170,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,26 +205,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="D1" sqref="D1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,17 +420,146 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
